--- a/frontend/livrables/P5_02_plantests/tests.xlsx
+++ b/frontend/livrables/P5_02_plantests/tests.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="git504  - Orinoco - P5" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,15 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">TEST ORINOCO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+  <si>
+    <t xml:space="preserve">Plan de test Javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Se repérer avec les commentaires dans le code</t>
   </si>
   <si>
     <t xml:space="preserve">Fichier</t>
   </si>
   <si>
-    <t xml:space="preserve">Fonction testée</t>
+    <t xml:space="preserve">*Fonction testée</t>
   </si>
   <si>
     <t xml:space="preserve">Résultat attendu</t>
@@ -43,19 +46,19 @@
     <t xml:space="preserve">index.js</t>
   </si>
   <si>
-    <t xml:space="preserve">promise : const getCams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tableau d’objet camera</t>
+    <t xml:space="preserve">RÉCUPÉRATION DU TABLEAU DE L’API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">« Array » avec les objets API caméra.</t>
   </si>
   <si>
     <t xml:space="preserve">console.log(getCams());</t>
   </si>
   <si>
-    <t xml:space="preserve">Tableau vide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">const cams = await getCams();</t>
+    <t xml:space="preserve">Array vide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFFICHER LA LISTE DES CAMERAS SUR LA PAGE</t>
   </si>
   <si>
     <t xml:space="preserve">Affichage dynamique, injection HTML via JS `${}` + innerHTML</t>
@@ -65,31 +68,163 @@
  Attend que le await soit exécuté avant de faire la suite</t>
   </si>
   <si>
-    <t xml:space="preserve">Mauvaise navigation dans Array → Objet { key : ‘value’,}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produit.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new URLSearchParams(window.location.search)</t>
+    <t xml:space="preserve">Mauvaise navigation dans Array → Objet { key : ‘value’}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">produit.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUIT SÉLECTIONNÉ PAR _id DE L’API</t>
   </si>
   <si>
     <t xml:space="preserve">_id de la camera </t>
   </si>
   <si>
-    <t xml:space="preserve">faisant ref au dossier routes -&gt; camera.js -&gt; router.get('/:id', cameraCtrl.getOneCamera);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id absent soit pblm backend api dossier routes soit js </t>
+    <t xml:space="preserve">REF. au dossier backend/routes/camera.js -&gt; router.get('/:id', cameraCtrl.getOneCamera);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">« id » absent du « backend » ou  objet vide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFFICHER LE PRODUIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Récupération des données API correspondant a l’'ID' dans une variable produit. L’objet article stocke les valeurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">console.log(produit);       console.log(article);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absence « key : value »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOIX DE LA LENTILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajoute au panier sans créer un objet supplémentaire pour une lentille identique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage page HTML menu déroulant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absence de menu déroulant. Les lentilles sont presentes dans une seule liste &lt;select&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">panier.js</t>
   </si>
   <si>
-    <t xml:space="preserve">confirmation.js </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fonction.js</t>
+    <t xml:space="preserve">AFFICHE TOTAL PRODUIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panier &gt;=0, création d’un panier dans le « local storage » si besoin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">console.log("Panier OK"); console.log("Création du panier");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liste inexistante ou égale à 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPPRESSION PRODUIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le panier se vide et le « local storage » également.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reload page + local storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’élément sélectionné n’est pas stocké dans le tableau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST INPUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tout le formulaire doit être validé en « true ».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (!inputRegex(nomForm)) {
+        alert(Message);
+      } ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom, prénom, adresse, ville sans caractères spéciaux et avec leurs spécificités attendues…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDATION DE LA COMMANDE ET DU FORMULAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La page de confirmation s’affiche si les conditions sont remplies : formulaire sans erreurs + min 1 article dans le panier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alert("Votre panier est vide.") ; alert(messageError);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La page, confirmation s’affiche malgré des erreurs REGEX et aucun article dans le panier.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">panier.js / </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">confirmation.js </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">RÉCUPÉRATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> COMMANDE</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Objet contact et products dans le local storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">console.log(commandeUser,contact) ; console.log(commandeUser,produts)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"data" inexistante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAITEMENT RÉPONSE OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A envoyer : Objet « contact » et « products » + order_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage dans la page confirmation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST DE LA COMMANDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A recevoir : Objet contact et products + order_id</t>
   </si>
 </sst>
 </file>
@@ -99,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -135,26 +270,33 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Ubuntu"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Ubuntu"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Ubuntu"/>
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,20 +305,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1B75BC"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FF9A6704"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFEEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -242,7 +378,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -251,6 +387,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,7 +399,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -271,8 +411,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -283,20 +423,28 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -321,18 +469,18 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF9A6704"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF1B75BC"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -376,162 +524,324 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F13"/>
+  <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="30.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="26.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="19.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+    </row>
+    <row r="5" s="7" customFormat="true" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" s="6" customFormat="true" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" s="7" customFormat="true" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" s="6" customFormat="true" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8" t="s">
+    </row>
+    <row r="8" s="7" customFormat="true" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
+      <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
+    </row>
+    <row r="9" s="7" customFormat="true" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="s">
+      <c r="D9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="E9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" s="7" customFormat="true" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" s="7" customFormat="true" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" s="7" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" s="7" customFormat="true" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" s="7" customFormat="true" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" s="7" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" s="7" customFormat="true" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" s="7" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" s="7" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="80" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.0784722222222222" right="0.0784722222222222" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="65" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
